--- a/Automate data cleaning with Power Query/modern-analyst-labs/Lab 03B/MAIAD Lab 03B – My Solution.xlsx
+++ b/Automate data cleaning with Power Query/modern-analyst-labs/Lab 03B/MAIAD Lab 03B – My Solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\af\Desktop\Automate data cleaning with Power Query\modern-analyst-labs\Lab 03B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D839876-8E97-43A0-A397-E96171B6EF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D377E843-0CF8-464C-AD69-9C6BFB261449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="-585" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{79C8DE29-11C0-4B3A-9B9B-6272E68B4001}"/>
   </bookViews>
@@ -22,12 +22,12 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="79" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{876F7934-8845-4945-9796-88D515C7AA90}">
       <x14:pivotCaches>
-        <pivotCache cacheId="17" r:id="rId4"/>
+        <pivotCache cacheId="1" r:id="rId4"/>
       </x14:pivotCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Raw MRR per Office</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>By Region &amp; District</t>
+  </si>
+  <si>
+    <t>Completed Year Trend</t>
   </si>
 </sst>
 </file>
@@ -223,22 +226,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <alignment vertical="center"/>
     </dxf>
@@ -269,21 +257,6 @@
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -312,8 +285,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>184500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Company Size">
@@ -336,7 +309,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -390,8 +363,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>184500</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Segment">
@@ -414,7 +387,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -822,7 +795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6645827-297F-4746-9FD3-58B50D81516E}" name="MAIADLab03APowerBIModel" cacheId="79" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="By Region &amp; District" colHeaderCaption="By Year" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B6645827-297F-4746-9FD3-58B50D81516E}" name="MAIADLab03APowerBIModel" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" subtotalHiddenItems="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="By Region &amp; District" colHeaderCaption="By Year" fieldListSortAscending="1">
   <location ref="B7:J26" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -960,42 +933,42 @@
     <dataField fld="0" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="0">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="8">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="7">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="3">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="2">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1530,10 +1503,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E4060B-CB2F-4FF1-BFA0-D896E216AD93}">
-  <dimension ref="B2:J26"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:J26"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="6" activeCol="1" previousRow="6" previousCol="1" click="1" r:id="rId1">
+        <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1541,14 +1517,15 @@
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="15.7109375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1584,8 +1561,11 @@
       <c r="J8" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="K8" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1614,7 +1594,7 @@
         <v>56755.513400000003</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1643,7 +1623,7 @@
         <v>93625.924499999994</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1672,7 +1652,7 @@
         <v>36311.699699999997</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1701,7 +1681,7 @@
         <v>34807.873699999996</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1730,7 +1710,7 @@
         <v>220180.541</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1759,7 +1739,7 @@
         <v>211916.43479999999</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
@@ -1788,7 +1768,7 @@
         <v>227547.76740000001</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>3</v>
       </c>
@@ -1875,7 +1855,7 @@
         <v>117227.398</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +1971,7 @@
         <v>43092.423199999997</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -2078,7 +2058,7 @@
         <v>91068.993400000007</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2111,6 +2091,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
+      <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" low="1" xr2:uid="{A0BCC17D-7F2A-4DBA-8396-7BC36C8BE84B}">
+          <x14:colorSeries theme="9"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="9" tint="-0.249977111117893"/>
+          <x14:colorLast theme="9" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D26:H26</xm:f>
+              <xm:sqref>K26</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" low="1" xr2:uid="{E4A30181-6A6F-45B6-8230-A2B34D4A0F7F}">
+          <x14:colorSeries theme="9"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="9" tint="-0.249977111117893"/>
+          <x14:colorLast theme="9" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D23:H23</xm:f>
+              <xm:sqref>K23</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" low="1" xr2:uid="{F5B9143E-F6C5-406E-9189-18622D380148}">
+          <x14:colorSeries theme="9"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="9" tint="-0.249977111117893"/>
+          <x14:colorLast theme="9" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D19:H19</xm:f>
+              <xm:sqref>K19</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" low="1" xr2:uid="{CD4ECCC0-20B6-44C0-8692-4FDEB88ECD48}">
+          <x14:colorSeries theme="9"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="9" tint="-0.249977111117893"/>
+          <x14:colorLast theme="9" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D16:H16</xm:f>
+              <xm:sqref>K16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" low="1" xr2:uid="{30232996-5DBE-46E5-A99D-C25DFE2EF0D8}">
+          <x14:colorSeries theme="9"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="9" tint="-0.249977111117893"/>
+          <x14:colorLast theme="9" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D13:H13</xm:f>
+              <xm:sqref>K13</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" low="1" xr2:uid="{B82AF97D-1DC0-4133-9A06-49C7C78461BF}">
+          <x14:colorSeries theme="9"/>
+          <x14:colorNegative theme="4"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers theme="9" tint="-0.249977111117893"/>
+          <x14:colorFirst theme="9" tint="-0.249977111117893"/>
+          <x14:colorLast theme="9" tint="-0.249977111117893"/>
+          <x14:colorHigh theme="9" tint="-0.249977111117893"/>
+          <x14:colorLow rgb="FFC00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>Sheet2!D9:H9</xm:f>
+              <xm:sqref>K9</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+      </x14:sparklineGroups>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
         <x14:slicer r:id="rId3"/>
